--- a/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B41" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
